--- a/experiments/web-trends/elements-over-time.xlsx
+++ b/experiments/web-trends/elements-over-time.xlsx
@@ -4,31 +4,29 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15560" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="All" sheetId="3" r:id="rId2"/>
-    <sheet name="Plugins" sheetId="2" r:id="rId3"/>
-    <sheet name="Embolded" sheetId="4" r:id="rId4"/>
-    <sheet name="Styling" sheetId="5" r:id="rId5"/>
-    <sheet name="Frames" sheetId="6" r:id="rId6"/>
-    <sheet name="Scripts" sheetId="7" r:id="rId7"/>
-    <sheet name="Blink" sheetId="8" r:id="rId8"/>
-    <sheet name="Map" sheetId="9" r:id="rId9"/>
-    <sheet name="Forms" sheetId="10" r:id="rId10"/>
+    <sheet name="Obsoletes" sheetId="3" r:id="rId1"/>
+    <sheet name="Plugins" sheetId="2" r:id="rId2"/>
+    <sheet name="Embolded" sheetId="4" r:id="rId3"/>
+    <sheet name="Styling" sheetId="5" r:id="rId4"/>
+    <sheet name="Frames" sheetId="6" r:id="rId5"/>
+    <sheet name="Scripts" sheetId="7" r:id="rId6"/>
+    <sheet name="Blink" sheetId="8" r:id="rId7"/>
+    <sheet name="Map" sheetId="9" r:id="rId8"/>
+    <sheet name="Forms" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="elements_over_time" localSheetId="1">All!$A$1:$E$17</definedName>
-    <definedName name="elements_over_time" localSheetId="7">Blink!$A$1:$C$17</definedName>
-    <definedName name="elements_over_time" localSheetId="3">Embolded!$A$1:$D$23</definedName>
-    <definedName name="elements_over_time" localSheetId="9">Forms!$A$1:$B$17</definedName>
-    <definedName name="elements_over_time" localSheetId="5">Frames!$A$1:$C$17</definedName>
-    <definedName name="elements_over_time" localSheetId="8">Map!$A$1:$A$17</definedName>
-    <definedName name="elements_over_time" localSheetId="2">Plugins!$A$1:$D$16</definedName>
-    <definedName name="elements_over_time" localSheetId="6">Scripts!$A$1:$C$17</definedName>
-    <definedName name="elements_over_time" localSheetId="0">Sheet1!$A$1:$X$23</definedName>
-    <definedName name="elements_over_time" localSheetId="4">Styling!$A$1:$C$17</definedName>
+    <definedName name="elements_over_time" localSheetId="6">Blink!$A$1:$C$17</definedName>
+    <definedName name="elements_over_time" localSheetId="2">Embolded!$A$1:$D$17</definedName>
+    <definedName name="elements_over_time" localSheetId="8">Forms!$A$1:$B$17</definedName>
+    <definedName name="elements_over_time" localSheetId="4">Frames!$A$1:$C$17</definedName>
+    <definedName name="elements_over_time" localSheetId="7">Map!$A$1:$A$17</definedName>
+    <definedName name="elements_over_time" localSheetId="0">Obsoletes!$A$1:$D$17</definedName>
+    <definedName name="elements_over_time" localSheetId="1">Plugins!$A$1:$D$16</definedName>
+    <definedName name="elements_over_time" localSheetId="5">Scripts!$A$1:$C$17</definedName>
+    <definedName name="elements_over_time" localSheetId="3">Styling!$A$1:$C$17</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -75,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>year</t>
   </si>
@@ -99,9 +97,6 @@
   </si>
   <si>
     <t>embed</t>
-  </si>
-  <si>
-    <t>emph</t>
   </si>
   <si>
     <t>font</t>
@@ -147,6 +142,9 @@
   </si>
   <si>
     <t>style</t>
+  </si>
+  <si>
+    <t>em</t>
   </si>
 </sst>
 </file>
@@ -202,8 +200,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -286,7 +288,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -325,6 +327,8 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -363,6 +367,8 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,225 +390,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:areaChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>applet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$7:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1996.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1997.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1998.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1999.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2001.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2002.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2003.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2004.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2005.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2006.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2007.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2008.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2009.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$7:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.386797893322</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.494136012013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.895272901581</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.630722441019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.55892243827</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.11600686768</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.962315603434</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.876689114928</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.719612574745</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.397282970345</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.287452915323</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.149934990202</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.115130570435</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0787468760024</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.049768672817</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2028317080"/>
-        <c:axId val="2123855144"/>
-      </c:areaChart>
-      <c:catAx>
-        <c:axId val="2028317080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123855144"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2123855144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2028317080"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -614,11 +401,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Forms!$B$1</c:f>
+              <c:f>Obsoletes!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>form</c:v>
+                  <c:v>basefont</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -628,7 +415,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Forms!$A$2:$A$17</c:f>
+              <c:f>Obsoletes!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -685,57 +472,323 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Forms!$B$2:$B$17</c:f>
+              <c:f>Obsoletes!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.205761316872</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.65293013742</c:v>
+                  <c:v>1.67240703628</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.3318758472</c:v>
+                  <c:v>2.49034953082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.92374514968</c:v>
+                  <c:v>1.65474993641</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.2117631313</c:v>
+                  <c:v>1.11229252269</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.6240378184</c:v>
+                  <c:v>0.833366065151</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.4110924283</c:v>
+                  <c:v>1.25952057986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.7312646755</c:v>
+                  <c:v>1.13483000067</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.4898178958</c:v>
+                  <c:v>1.05724302946</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.2103442506</c:v>
+                  <c:v>0.72800747257</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71.7500565842</c:v>
+                  <c:v>0.527997752047</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.8380635078</c:v>
+                  <c:v>0.335612901659</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71.0519073347</c:v>
+                  <c:v>0.237612522104</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72.655439179</c:v>
+                  <c:v>0.164736735358</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>76.191064735</c:v>
+                  <c:v>0.12496273029</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82.3573007974</c:v>
+                  <c:v>0.119240582361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Obsoletes!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dir</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Obsoletes!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Obsoletes!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13827865379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.305287477961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.454119684005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.394999131836</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.239712684013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.310729687728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.210910637745</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.145433893444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0786848914774</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0452513303529</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0379046498464</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0242672165766</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0170284113858</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.01774696947</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0125828795035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Obsoletes!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>listing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Obsoletes!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Obsoletes!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0917609499807</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0316656864353</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0335309301562</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0170126772932</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00570792727186</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0034645351555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00146633450331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.000835213559032</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.000405288471913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.000264040032061</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.000190337580116</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00014516673963</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>3.62443954621E-5</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>6.33295284726E-5</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>2.41219370056E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,11 +805,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132952040"/>
-        <c:axId val="2129513144"/>
+        <c:axId val="2133492680"/>
+        <c:axId val="2128880072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132952040"/>
+        <c:axId val="2133492680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,7 +819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129513144"/>
+        <c:crossAx val="2128880072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -774,7 +827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129513144"/>
+        <c:axId val="2128880072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132952040"/>
+        <c:crossAx val="2133492680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -824,418 +877,6 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:areaChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$6:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1995.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1997.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1998.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1999.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2001.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2002.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2003.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2004.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2005.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2006.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2007.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2008.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2009.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$6:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.205761316872</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0625790562</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.10812610681</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.925078172831</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.474435450388</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.49253035803</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.682077564758</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.18837682087</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.140524121512</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.117065201037</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.373223792282</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0751879227129</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0798205145716</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.100814034227</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0512301958811</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0435152433903</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2126378504"/>
-        <c:axId val="2125834392"/>
-      </c:areaChart>
-      <c:catAx>
-        <c:axId val="2126378504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125834392"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2125834392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126378504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:areaChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$6:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1995.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1997.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1998.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1999.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2001.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2002.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2003.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2004.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2005.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2006.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2007.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2008.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2009.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$6:$J$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>13.7860082305</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.0452814799</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41.4174425841</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56.9310603489</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56.4679508243</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71.4594692444</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>79.6321654596</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75.9098877136</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70.60391538259999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65.38672172370001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>59.8196867414</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>46.2123174761</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40.7386126097</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>34.918275591</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26.2842976752</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.882185682</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2124882312"/>
-        <c:axId val="2122241816"/>
-      </c:areaChart>
-      <c:catAx>
-        <c:axId val="2124882312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122241816"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2122241816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124882312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1614,133 +1255,6 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7.17188168082</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plugins!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>map</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Plugins!$A$2:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1996.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1997.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1998.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1999.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2001.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2002.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2003.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2004.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2005.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2006.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2007.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2008.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2009.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Plugins!$E$2:$E$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>4.97229647708</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.47292021825</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.85280684395</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.6046827898</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29.2904053592</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.5863877743</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.2021644812</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.8755463875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.727665224260001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0844499438</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.75410744573</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.611187682740001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.07155388412</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.43763276937</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.53878999715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1812,7 +1326,624 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Embolded!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Embolded!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Embolded!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>29.012345679</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.6082062327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.5643223035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.8596758442</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.9423507769</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.0755019843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.7726774688</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.1917281241</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.1075228857</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.9732752951</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72.4363645083</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.2964682973</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54.1750346374</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.4948223888</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.7169223794</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.0862820196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Embolded!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Embolded!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Embolded!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>16.4609053498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.1284398408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0622454452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.02605321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.0150859763</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.8830109073</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.1156515479</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.429000998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.3781272273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.7365156477</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.2432881425</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.7330780603</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.3463346219</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.5249020098</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.64523080871</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.03449140219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Embolded!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>strong</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Embolded!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Embolded!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.32098765432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.9048394343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.2204997386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.6847306363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.5297014087</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.0764474683</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.9626450094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.0144445096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.5814753812</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.0189873834</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.1382563957</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.3088881449</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.0016798017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.3350151395</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.8708848882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57.4506070081</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Embolded!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>em</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Embolded!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Embolded!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.44032921811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0583382984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.83621793687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.8912744188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.494442131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.11403115909</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5935303047</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.45711940559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.83031625186</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.07030025305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.57936127776</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0082558631</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.6797042116</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0266247357</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.9918231966</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.0248837663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2130717304"/>
+        <c:axId val="2130993656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2130717304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2130993656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2130993656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2130717304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2562,7 +2693,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2913,7 +3044,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3193,139 +3324,6 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>95.3069499672</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Scripts!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>map</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Scripts!$A$2:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1995.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1997.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1998.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1999.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2001.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2002.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2003.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2004.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2005.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2006.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2007.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2008.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2009.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Scripts!$D$2:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.97229647708</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.47292021825</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.85280684395</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.6046827898</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.2904053592</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.5863877743</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.2021644812</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.8755463875</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.727665224260001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0844499438</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.75410744573</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.611187682740001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.07155388412</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.43763276937</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.53878999715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3398,7 +3396,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3749,7 +3747,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4100,20 +4098,242 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Forms!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>form</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Forms!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Forms!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.205761316872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.65293013742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3318758472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.92374514968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.2117631313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.6240378184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.4110924283</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.7312646755</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.4898178958</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.2103442506</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.7500565842</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.8380635078</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.0519073347</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72.655439179</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.191064735</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.3573007974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2132952040"/>
+        <c:axId val="2129513144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2132952040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2129513144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2129513144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2132952040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4127,66 +4347,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4235,6 +4395,41 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -4265,20 +4460,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4300,7 +4495,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4335,20 +4530,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4370,7 +4565,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4405,7 +4600,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4441,10 +4636,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elements-over-time" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="elements-over-time" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -4802,1876 +4993,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:X23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2">
-        <v>1938</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3">
-        <v>1976</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>100</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4">
-        <v>1980</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>24.6376811594</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>4.3478260869599996</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>8.6956521739100001</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>71.014492753599995</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5">
-        <v>1994</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>99.137931034499999</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>3.44827586207</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>96.551724137899996</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>1.72413793103</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6">
-        <v>1995</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>29.012345678999999</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.205761316872</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.41152263374499998</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>13.7860082305</v>
-      </c>
-      <c r="K6">
-        <v>0.205761316872</v>
-      </c>
-      <c r="L6">
-        <v>0.205761316872</v>
-      </c>
-      <c r="M6">
-        <v>0.205761316872</v>
-      </c>
-      <c r="N6">
-        <v>16.460905349800001</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>4.3209876543199996</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7">
-        <v>1996</v>
-      </c>
-      <c r="B7">
-        <v>0.38679789332199999</v>
-      </c>
-      <c r="C7">
-        <v>51.608206232699999</v>
-      </c>
-      <c r="D7">
-        <v>1.6724070362800001</v>
-      </c>
-      <c r="E7">
-        <v>1.0625790561999999</v>
-      </c>
-      <c r="F7">
-        <v>0.13827865379000001</v>
-      </c>
-      <c r="G7">
-        <v>1.8256605673199999</v>
-      </c>
-      <c r="H7">
-        <v>0.15420937427299999</v>
-      </c>
-      <c r="I7">
-        <v>4.7792161448299997E-3</v>
-      </c>
-      <c r="J7">
-        <v>32.045281479899998</v>
-      </c>
-      <c r="K7">
-        <v>8.6529301374200003</v>
-      </c>
-      <c r="L7">
-        <v>1.30695630841</v>
-      </c>
-      <c r="M7">
-        <v>1.30727492282</v>
-      </c>
-      <c r="N7">
-        <v>32.128439840799999</v>
-      </c>
-      <c r="O7">
-        <v>4.1419873255199996E-3</v>
-      </c>
-      <c r="P7">
-        <v>4.8286013783300001</v>
-      </c>
-      <c r="Q7">
-        <v>9.1760949980700002E-2</v>
-      </c>
-      <c r="R7">
-        <v>4.9722964770800004</v>
-      </c>
-      <c r="S7">
-        <v>0.30077200271499999</v>
-      </c>
-      <c r="T7">
-        <v>8.9212034703500004E-2</v>
-      </c>
-      <c r="U7">
-        <v>1.06130459856</v>
-      </c>
-      <c r="V7">
-        <v>6.0855352244200002E-2</v>
-      </c>
-      <c r="W7">
-        <v>12.904839434299999</v>
-      </c>
-      <c r="X7">
-        <v>0.133180823236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8">
-        <v>1997</v>
-      </c>
-      <c r="B8">
-        <v>0.494136012013</v>
-      </c>
-      <c r="C8">
-        <v>54.564322303499999</v>
-      </c>
-      <c r="D8">
-        <v>2.4903495308200001</v>
-      </c>
-      <c r="E8">
-        <v>1.1081261068099999</v>
-      </c>
-      <c r="F8">
-        <v>0.30528747796099998</v>
-      </c>
-      <c r="G8">
-        <v>2.6953010931299999</v>
-      </c>
-      <c r="H8">
-        <v>0.191961065688</v>
-      </c>
-      <c r="I8">
-        <v>2.37762833303E-3</v>
-      </c>
-      <c r="J8">
-        <v>41.417442584100002</v>
-      </c>
-      <c r="K8">
-        <v>10.331875847199999</v>
-      </c>
-      <c r="L8">
-        <v>1.7758073723300001</v>
-      </c>
-      <c r="M8">
-        <v>1.77619643879</v>
-      </c>
-      <c r="N8">
-        <v>36.062245445199999</v>
-      </c>
-      <c r="O8">
-        <v>2.5721615602799998E-3</v>
-      </c>
-      <c r="P8">
-        <v>4.3072466437100001</v>
-      </c>
-      <c r="Q8">
-        <v>3.1665686435300003E-2</v>
-      </c>
-      <c r="R8">
-        <v>6.4729202182499996</v>
-      </c>
-      <c r="S8">
-        <v>0.20248747476199999</v>
-      </c>
-      <c r="T8">
-        <v>6.2337091931400003E-2</v>
-      </c>
-      <c r="U8">
-        <v>2.34352017385</v>
-      </c>
-      <c r="V8">
-        <v>3.3654248313900001E-2</v>
-      </c>
-      <c r="W8">
-        <v>13.220499738599999</v>
-      </c>
-      <c r="X8">
-        <v>0.13803213213400001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9">
-        <v>1998</v>
-      </c>
-      <c r="B9">
-        <v>0.89527290158100004</v>
-      </c>
-      <c r="C9">
-        <v>51.859675844199998</v>
-      </c>
-      <c r="D9">
-        <v>1.65474993641</v>
-      </c>
-      <c r="E9">
-        <v>0.92507817283100002</v>
-      </c>
-      <c r="F9">
-        <v>0.45411968400500002</v>
-      </c>
-      <c r="G9">
-        <v>7.9460970495999996</v>
-      </c>
-      <c r="H9">
-        <v>0.42120480768399998</v>
-      </c>
-      <c r="I9">
-        <v>2.4348794426599998E-3</v>
-      </c>
-      <c r="J9">
-        <v>56.931060348899997</v>
-      </c>
-      <c r="K9">
-        <v>8.9237451496800002</v>
-      </c>
-      <c r="L9">
-        <v>3.0645744696100001</v>
-      </c>
-      <c r="M9">
-        <v>3.0652491952399998</v>
-      </c>
-      <c r="N9">
-        <v>30.026053210000001</v>
-      </c>
-      <c r="O9">
-        <v>7.0171465383799994E-2</v>
-      </c>
-      <c r="P9">
-        <v>4.4348248778999997</v>
-      </c>
-      <c r="Q9">
-        <v>3.3530930156199998E-2</v>
-      </c>
-      <c r="R9">
-        <v>6.8528068439499998</v>
-      </c>
-      <c r="S9">
-        <v>0.45247687377899998</v>
-      </c>
-      <c r="T9">
-        <v>0.13702797441799999</v>
-      </c>
-      <c r="U9">
-        <v>5.1921310563600001</v>
-      </c>
-      <c r="V9">
-        <v>0.32061201721499999</v>
-      </c>
-      <c r="W9">
-        <v>15.684730636299999</v>
-      </c>
-      <c r="X9">
-        <v>0.80656114935699996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10">
-        <v>1999</v>
-      </c>
-      <c r="B10">
-        <v>0.63072244101899999</v>
-      </c>
-      <c r="C10">
-        <v>51.9423507769</v>
-      </c>
-      <c r="D10">
-        <v>1.11229252269</v>
-      </c>
-      <c r="E10">
-        <v>0.474435450388</v>
-      </c>
-      <c r="F10">
-        <v>0.39499913183599999</v>
-      </c>
-      <c r="G10">
-        <v>9.8140534531100005</v>
-      </c>
-      <c r="H10">
-        <v>0.262324790679</v>
-      </c>
-      <c r="I10">
-        <v>9.9043407219400002E-4</v>
-      </c>
-      <c r="J10">
-        <v>56.467950824299997</v>
-      </c>
-      <c r="K10">
-        <v>35.211763131300003</v>
-      </c>
-      <c r="L10">
-        <v>1.68529807552</v>
-      </c>
-      <c r="M10">
-        <v>1.6857626153900001</v>
-      </c>
-      <c r="N10">
-        <v>38.0150859763</v>
-      </c>
-      <c r="O10">
-        <v>1.15841344382</v>
-      </c>
-      <c r="P10">
-        <v>4.9100988251600004</v>
-      </c>
-      <c r="Q10">
-        <v>1.7012677293199999E-2</v>
-      </c>
-      <c r="R10">
-        <v>10.6046827898</v>
-      </c>
-      <c r="S10">
-        <v>0.35106067162499999</v>
-      </c>
-      <c r="T10">
-        <v>0.104311114099</v>
-      </c>
-      <c r="U10">
-        <v>8.1303330601900008</v>
-      </c>
-      <c r="V10">
-        <v>0.66979637990200003</v>
-      </c>
-      <c r="W10">
-        <v>17.529701408699999</v>
-      </c>
-      <c r="X10">
-        <v>2.1842840200300002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11">
-        <v>2000</v>
-      </c>
-      <c r="B11">
-        <v>0.55892243826999999</v>
-      </c>
-      <c r="C11">
-        <v>68.075501984300004</v>
-      </c>
-      <c r="D11">
-        <v>0.83336606515099998</v>
-      </c>
-      <c r="E11">
-        <v>1.49253035803</v>
-      </c>
-      <c r="F11">
-        <v>0.239712684013</v>
-      </c>
-      <c r="G11">
-        <v>14.833536781999999</v>
-      </c>
-      <c r="H11">
-        <v>0.34812856834099998</v>
-      </c>
-      <c r="I11">
-        <v>4.7469577717300002E-4</v>
-      </c>
-      <c r="J11">
-        <v>71.459469244399997</v>
-      </c>
-      <c r="K11">
-        <v>55.624037818399998</v>
-      </c>
-      <c r="L11">
-        <v>2.0611174865400002</v>
-      </c>
-      <c r="M11">
-        <v>2.06265445884</v>
-      </c>
-      <c r="N11">
-        <v>36.883010907299997</v>
-      </c>
-      <c r="O11">
-        <v>8.68853626776</v>
-      </c>
-      <c r="P11">
-        <v>9.8655039244499996</v>
-      </c>
-      <c r="Q11">
-        <v>5.7079272718599996E-3</v>
-      </c>
-      <c r="R11">
-        <v>29.290405359200001</v>
-      </c>
-      <c r="S11">
-        <v>0.25520108098599997</v>
-      </c>
-      <c r="T11">
-        <v>0.30262724140699998</v>
-      </c>
-      <c r="U11">
-        <v>18.534398207199999</v>
-      </c>
-      <c r="V11">
-        <v>3.75997552191</v>
-      </c>
-      <c r="W11">
-        <v>13.0764474683</v>
-      </c>
-      <c r="X11">
-        <v>5.5580276077899997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12">
-        <v>2001</v>
-      </c>
-      <c r="B12">
-        <v>1.1160068676799999</v>
-      </c>
-      <c r="C12">
-        <v>71.772677468799998</v>
-      </c>
-      <c r="D12">
-        <v>1.25952057986</v>
-      </c>
-      <c r="E12">
-        <v>0.68207756475799997</v>
-      </c>
-      <c r="F12">
-        <v>0.31072968772800003</v>
-      </c>
-      <c r="G12">
-        <v>37.3450514592</v>
-      </c>
-      <c r="H12">
-        <v>1.60996017349</v>
-      </c>
-      <c r="I12">
-        <v>6.0908763217600004E-4</v>
-      </c>
-      <c r="J12">
-        <v>79.632165459600003</v>
-      </c>
-      <c r="K12">
-        <v>40.411092428300002</v>
-      </c>
-      <c r="L12">
-        <v>3.3400782493199999</v>
-      </c>
-      <c r="M12">
-        <v>3.3454501414600002</v>
-      </c>
-      <c r="N12">
-        <v>22.115651547900001</v>
-      </c>
-      <c r="O12">
-        <v>10.0165951234</v>
-      </c>
-      <c r="P12">
-        <v>22.098271129899999</v>
-      </c>
-      <c r="Q12">
-        <v>3.4645351555E-3</v>
-      </c>
-      <c r="R12">
-        <v>14.5863877743</v>
-      </c>
-      <c r="S12">
-        <v>0.60978798982000004</v>
-      </c>
-      <c r="T12">
-        <v>1.5372533642099999</v>
-      </c>
-      <c r="U12">
-        <v>47.195285564899997</v>
-      </c>
-      <c r="V12">
-        <v>12.8605388999</v>
-      </c>
-      <c r="W12">
-        <v>11.962645009399999</v>
-      </c>
-      <c r="X12">
-        <v>20.830597716500002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13">
-        <v>2002</v>
-      </c>
-      <c r="B13">
-        <v>0.96231560343400002</v>
-      </c>
-      <c r="C13">
-        <v>74.191728124099996</v>
-      </c>
-      <c r="D13">
-        <v>1.1348300006700001</v>
-      </c>
-      <c r="E13">
-        <v>0.18837682086999999</v>
-      </c>
-      <c r="F13">
-        <v>0.21091063774499999</v>
-      </c>
-      <c r="G13">
-        <v>45.683052625999998</v>
-      </c>
-      <c r="H13">
-        <v>2.4078298718100002</v>
-      </c>
-      <c r="I13">
-        <v>8.5035967784800003E-4</v>
-      </c>
-      <c r="J13">
-        <v>75.9098877136</v>
-      </c>
-      <c r="K13">
-        <v>47.7312646755</v>
-      </c>
-      <c r="L13">
-        <v>2.5451422367299998</v>
-      </c>
-      <c r="M13">
-        <v>2.5532513809599999</v>
-      </c>
-      <c r="N13">
-        <v>21.429000997999999</v>
-      </c>
-      <c r="O13">
-        <v>6.0543436715299999</v>
-      </c>
-      <c r="P13">
-        <v>35.324252578100001</v>
-      </c>
-      <c r="Q13">
-        <v>1.4663345033099999E-3</v>
-      </c>
-      <c r="R13">
-        <v>16.202164481200001</v>
-      </c>
-      <c r="S13">
-        <v>0.56519477552700004</v>
-      </c>
-      <c r="T13">
-        <v>2.3195239495000002</v>
-      </c>
-      <c r="U13">
-        <v>59.3498475755</v>
-      </c>
-      <c r="V13">
-        <v>24.606173422600001</v>
-      </c>
-      <c r="W13">
-        <v>11.014444509600001</v>
-      </c>
-      <c r="X13">
-        <v>28.5908588307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14">
-        <v>2003</v>
-      </c>
-      <c r="B14">
-        <v>0.87668911492799995</v>
-      </c>
-      <c r="C14">
-        <v>73.107522885700007</v>
-      </c>
-      <c r="D14">
-        <v>1.0572430294599999</v>
-      </c>
-      <c r="E14">
-        <v>0.140524121512</v>
-      </c>
-      <c r="F14">
-        <v>0.14543389344400001</v>
-      </c>
-      <c r="G14">
-        <v>52.896894565499998</v>
-      </c>
-      <c r="H14">
-        <v>2.91907213521</v>
-      </c>
-      <c r="I14">
-        <v>7.0981956625500002E-4</v>
-      </c>
-      <c r="J14">
-        <v>70.603915382599993</v>
-      </c>
-      <c r="K14">
-        <v>52.489817895800002</v>
-      </c>
-      <c r="L14">
-        <v>2.01350358952</v>
-      </c>
-      <c r="M14">
-        <v>2.0223893959699999</v>
-      </c>
-      <c r="N14">
-        <v>18.378127227299998</v>
-      </c>
-      <c r="O14">
-        <v>6.2392968203399999</v>
-      </c>
-      <c r="P14">
-        <v>52.312613045900001</v>
-      </c>
-      <c r="Q14">
-        <v>8.3521355903199996E-4</v>
-      </c>
-      <c r="R14">
-        <v>10.8755463875</v>
-      </c>
-      <c r="S14">
-        <v>0.64568203173500005</v>
-      </c>
-      <c r="T14">
-        <v>2.8410039252099999</v>
-      </c>
-      <c r="U14">
-        <v>66.981768833000004</v>
-      </c>
-      <c r="V14">
-        <v>33.321112892599999</v>
-      </c>
-      <c r="W14">
-        <v>16.581475381200001</v>
-      </c>
-      <c r="X14">
-        <v>28.8924127752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15">
-        <v>2004</v>
-      </c>
-      <c r="B15">
-        <v>0.71961257474499996</v>
-      </c>
-      <c r="C15">
-        <v>67.973275295099995</v>
-      </c>
-      <c r="D15">
-        <v>0.72800747256999998</v>
-      </c>
-      <c r="E15">
-        <v>0.11706520103699999</v>
-      </c>
-      <c r="F15">
-        <v>7.8684891477400001E-2</v>
-      </c>
-      <c r="G15">
-        <v>59.207711062599998</v>
-      </c>
-      <c r="H15">
-        <v>3.9862554639200001</v>
-      </c>
-      <c r="I15">
-        <v>3.6670975753600002E-4</v>
-      </c>
-      <c r="J15">
-        <v>65.386721723700006</v>
-      </c>
-      <c r="K15">
-        <v>63.210344250600002</v>
-      </c>
-      <c r="L15">
-        <v>1.3668976909899999</v>
-      </c>
-      <c r="M15">
-        <v>1.37221731415</v>
-      </c>
-      <c r="N15">
-        <v>14.736515647699999</v>
-      </c>
-      <c r="O15">
-        <v>6.2862963700799996</v>
-      </c>
-      <c r="P15">
-        <v>66.123559058500007</v>
-      </c>
-      <c r="Q15">
-        <v>4.0528847191300001E-4</v>
-      </c>
-      <c r="R15">
-        <v>9.7276652242600008</v>
-      </c>
-      <c r="S15">
-        <v>0.73365310706800002</v>
-      </c>
-      <c r="T15">
-        <v>2.7667823024799998</v>
-      </c>
-      <c r="U15">
-        <v>72.523001710599999</v>
-      </c>
-      <c r="V15">
-        <v>40.841613307599999</v>
-      </c>
-      <c r="W15">
-        <v>29.018987383399999</v>
-      </c>
-      <c r="X15">
-        <v>36.406584801500003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16">
-        <v>2005</v>
-      </c>
-      <c r="B16">
-        <v>0.39728297034499999</v>
-      </c>
-      <c r="C16">
-        <v>72.436364508300002</v>
-      </c>
-      <c r="D16">
-        <v>0.52799775204699995</v>
-      </c>
-      <c r="E16">
-        <v>0.37322379228199998</v>
-      </c>
-      <c r="F16">
-        <v>4.52513303529E-2</v>
-      </c>
-      <c r="G16">
-        <v>68.090067817800005</v>
-      </c>
-      <c r="H16">
-        <v>2.8177454271600002</v>
-      </c>
-      <c r="I16">
-        <v>2.02573222978E-4</v>
-      </c>
-      <c r="J16">
-        <v>59.819686741399998</v>
-      </c>
-      <c r="K16">
-        <v>71.750056584199996</v>
-      </c>
-      <c r="L16">
-        <v>1.21647892868</v>
-      </c>
-      <c r="M16">
-        <v>1.21844640107</v>
-      </c>
-      <c r="N16">
-        <v>15.243288142500001</v>
-      </c>
-      <c r="O16">
-        <v>8.6440116185699996</v>
-      </c>
-      <c r="P16">
-        <v>73.913621986699994</v>
-      </c>
-      <c r="Q16">
-        <v>2.6404003206100001E-4</v>
-      </c>
-      <c r="R16">
-        <v>10.084449943799999</v>
-      </c>
-      <c r="S16">
-        <v>0.75507004164299996</v>
-      </c>
-      <c r="T16">
-        <v>3.99405071841</v>
-      </c>
-      <c r="U16">
-        <v>76.427000879100007</v>
-      </c>
-      <c r="V16">
-        <v>49.879483363699997</v>
-      </c>
-      <c r="W16">
-        <v>29.138256395700001</v>
-      </c>
-      <c r="X16">
-        <v>36.590644659699997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17">
-        <v>2006</v>
-      </c>
-      <c r="B17">
-        <v>0.28745291532299999</v>
-      </c>
-      <c r="C17">
-        <v>62.296468297300002</v>
-      </c>
-      <c r="D17">
-        <v>0.33561290165899998</v>
-      </c>
-      <c r="E17">
-        <v>7.5187922712899993E-2</v>
-      </c>
-      <c r="F17">
-        <v>3.7904649846399997E-2</v>
-      </c>
-      <c r="G17">
-        <v>79.246240420700005</v>
-      </c>
-      <c r="H17">
-        <v>4.2955836396400002</v>
-      </c>
-      <c r="I17">
-        <v>2.3350692818299999E-4</v>
-      </c>
-      <c r="J17">
-        <v>46.212317476099997</v>
-      </c>
-      <c r="K17">
-        <v>68.838063507800001</v>
-      </c>
-      <c r="L17">
-        <v>0.79851389650100002</v>
-      </c>
-      <c r="M17">
-        <v>0.80104257376800003</v>
-      </c>
-      <c r="N17">
-        <v>15.7330780603</v>
-      </c>
-      <c r="O17">
-        <v>7.4147345200199997</v>
-      </c>
-      <c r="P17">
-        <v>79.668707434400005</v>
-      </c>
-      <c r="Q17">
-        <v>1.90337580116E-4</v>
-      </c>
-      <c r="R17">
-        <v>6.7541074457299999</v>
-      </c>
-      <c r="S17">
-        <v>1.1247479302500001</v>
-      </c>
-      <c r="T17">
-        <v>4.52898329854</v>
-      </c>
-      <c r="U17">
-        <v>80.014668552000003</v>
-      </c>
-      <c r="V17">
-        <v>60.5494845789</v>
-      </c>
-      <c r="W17">
-        <v>33.308888144900003</v>
-      </c>
-      <c r="X17">
-        <v>36.345463257299997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18">
-        <v>2007</v>
-      </c>
-      <c r="B18">
-        <v>0.14993499020199999</v>
-      </c>
-      <c r="C18">
-        <v>54.175034637400003</v>
-      </c>
-      <c r="D18">
-        <v>0.237612522104</v>
-      </c>
-      <c r="E18">
-        <v>7.9820514571599999E-2</v>
-      </c>
-      <c r="F18">
-        <v>2.4267216576600002E-2</v>
-      </c>
-      <c r="G18">
-        <v>83.790419069400002</v>
-      </c>
-      <c r="H18">
-        <v>4.2754428684899999</v>
-      </c>
-      <c r="I18">
-        <v>2.6278358706699999E-4</v>
-      </c>
-      <c r="J18">
-        <v>40.738612609699999</v>
-      </c>
-      <c r="K18">
-        <v>71.051907334700005</v>
-      </c>
-      <c r="L18">
-        <v>0.75165854324500003</v>
-      </c>
-      <c r="M18">
-        <v>0.75243311906099997</v>
-      </c>
-      <c r="N18">
-        <v>11.346334621900001</v>
-      </c>
-      <c r="O18">
-        <v>9.9266468226200004</v>
-      </c>
-      <c r="P18">
-        <v>77.124597619300005</v>
-      </c>
-      <c r="Q18">
-        <v>1.4516673963E-4</v>
-      </c>
-      <c r="R18">
-        <v>8.6111876827400007</v>
-      </c>
-      <c r="S18">
-        <v>0.81192552183300004</v>
-      </c>
-      <c r="T18">
-        <v>4.6325382134200002</v>
-      </c>
-      <c r="U18">
-        <v>84.443907280399998</v>
-      </c>
-      <c r="V18">
-        <v>65.5932050734</v>
-      </c>
-      <c r="W18">
-        <v>42.0016798017</v>
-      </c>
-      <c r="X18">
-        <v>42.565245694399998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19">
-        <v>2008</v>
-      </c>
-      <c r="B19">
-        <v>0.115130570435</v>
-      </c>
-      <c r="C19">
-        <v>50.494822388800003</v>
-      </c>
-      <c r="D19">
-        <v>0.16473673535800001</v>
-      </c>
-      <c r="E19">
-        <v>0.100814034227</v>
-      </c>
-      <c r="F19">
-        <v>1.70284113858E-2</v>
-      </c>
-      <c r="G19">
-        <v>90.734855614500006</v>
-      </c>
-      <c r="H19">
-        <v>5.08639149558</v>
-      </c>
-      <c r="I19">
-        <v>1.95620435782E-4</v>
-      </c>
-      <c r="J19">
-        <v>34.918275590999997</v>
-      </c>
-      <c r="K19">
-        <v>72.655439178999998</v>
-      </c>
-      <c r="L19">
-        <v>0.61351335047400002</v>
-      </c>
-      <c r="M19">
-        <v>0.61387629092700002</v>
-      </c>
-      <c r="N19">
-        <v>9.5249020097999999</v>
-      </c>
-      <c r="O19">
-        <v>11.2359507662</v>
-      </c>
-      <c r="P19">
-        <v>87.587044763600005</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>3.6244395462099998E-5</v>
-      </c>
-      <c r="R19">
-        <v>8.0715538841200001</v>
-      </c>
-      <c r="S19">
-        <v>1.0688606276399999</v>
-      </c>
-      <c r="T19">
-        <v>5.6201051137100002</v>
-      </c>
-      <c r="U19">
-        <v>86.177649173600003</v>
-      </c>
-      <c r="V19">
-        <v>70.852988015299999</v>
-      </c>
-      <c r="W19">
-        <v>47.335015139500001</v>
-      </c>
-      <c r="X19">
-        <v>39.390931304699997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
-      <c r="A20">
-        <v>2009</v>
-      </c>
-      <c r="B20">
-        <v>7.8746876002400004E-2</v>
-      </c>
-      <c r="C20">
-        <v>44.716922379400003</v>
-      </c>
-      <c r="D20">
-        <v>0.12496273029</v>
-      </c>
-      <c r="E20">
-        <v>5.1230195881099998E-2</v>
-      </c>
-      <c r="F20">
-        <v>1.7746969469999999E-2</v>
-      </c>
-      <c r="G20">
-        <v>93.140359212999996</v>
-      </c>
-      <c r="H20">
-        <v>5.3450336899000002</v>
-      </c>
-      <c r="I20">
-        <v>2.79328455942E-4</v>
-      </c>
-      <c r="J20">
-        <v>26.284297675200001</v>
-      </c>
-      <c r="K20">
-        <v>76.191064734999998</v>
-      </c>
-      <c r="L20">
-        <v>0.316359266832</v>
-      </c>
-      <c r="M20">
-        <v>0.316790133802</v>
-      </c>
-      <c r="N20">
-        <v>9.64523080871</v>
-      </c>
-      <c r="O20">
-        <v>13.4817506068</v>
-      </c>
-      <c r="P20">
-        <v>90.855000089599997</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>6.3329528472599994E-5</v>
-      </c>
-      <c r="R20">
-        <v>5.4376327693700004</v>
-      </c>
-      <c r="S20">
-        <v>0.962371347052</v>
-      </c>
-      <c r="T20">
-        <v>6.4728330741600004</v>
-      </c>
-      <c r="U20">
-        <v>91.240200815700007</v>
-      </c>
-      <c r="V20">
-        <v>75.796972995600001</v>
-      </c>
-      <c r="W20">
-        <v>51.870884888200003</v>
-      </c>
-      <c r="X20">
-        <v>38.496333078900001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21">
-        <v>2010</v>
-      </c>
-      <c r="B21">
-        <v>4.9768672817000002E-2</v>
-      </c>
-      <c r="C21">
-        <v>41.086282019599999</v>
-      </c>
-      <c r="D21">
-        <v>0.11924058236100001</v>
-      </c>
-      <c r="E21">
-        <v>4.3515243390300003E-2</v>
-      </c>
-      <c r="F21">
-        <v>1.25828795035E-2</v>
-      </c>
-      <c r="G21">
-        <v>96.341514261499995</v>
-      </c>
-      <c r="H21">
-        <v>5.6405494848600002</v>
-      </c>
-      <c r="I21">
-        <v>1.35960008577E-4</v>
-      </c>
-      <c r="J21">
-        <v>19.882185681999999</v>
-      </c>
-      <c r="K21">
-        <v>82.357300797400001</v>
-      </c>
-      <c r="L21">
-        <v>0.19203547146899999</v>
-      </c>
-      <c r="M21">
-        <v>0.192365137942</v>
-      </c>
-      <c r="N21">
-        <v>9.0344914021899996</v>
-      </c>
-      <c r="O21">
-        <v>16.1624492286</v>
-      </c>
-      <c r="P21">
-        <v>94.774225759999993</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>2.4121937005600001E-5</v>
-      </c>
-      <c r="R21">
-        <v>5.5387899971500003</v>
-      </c>
-      <c r="S21">
-        <v>0.85213081569100002</v>
-      </c>
-      <c r="T21">
-        <v>7.1718816808200003</v>
-      </c>
-      <c r="U21">
-        <v>95.306949967199998</v>
-      </c>
-      <c r="V21">
-        <v>83.4172018971</v>
-      </c>
-      <c r="W21">
-        <v>57.4506070081</v>
-      </c>
-      <c r="X21">
-        <v>40.348408047900001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
-      <c r="A22">
-        <v>2014</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>50</v>
-      </c>
-      <c r="K22">
-        <v>50</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>50</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>50</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>50</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="A23">
-        <v>2072</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1995</v>
       </c>
       <c r="B2">
-        <v>0.205761316872</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1996</v>
       </c>
       <c r="B3">
-        <v>8.6529301374200003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.6724070362800001</v>
+      </c>
+      <c r="C3">
+        <v>0.13827865379000001</v>
+      </c>
+      <c r="D3">
+        <v>9.1760949980700002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1997</v>
       </c>
       <c r="B4">
-        <v>10.331875847199999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>2.4903495308200001</v>
+      </c>
+      <c r="C4">
+        <v>0.30528747796099998</v>
+      </c>
+      <c r="D4">
+        <v>3.1665686435300003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1998</v>
       </c>
       <c r="B5">
-        <v>8.9237451496800002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>1.65474993641</v>
+      </c>
+      <c r="C5">
+        <v>0.45411968400500002</v>
+      </c>
+      <c r="D5">
+        <v>3.3530930156199998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1999</v>
       </c>
       <c r="B6">
-        <v>35.211763131300003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>1.11229252269</v>
+      </c>
+      <c r="C6">
+        <v>0.39499913183599999</v>
+      </c>
+      <c r="D6">
+        <v>1.7012677293199999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>2000</v>
       </c>
       <c r="B7">
-        <v>55.624037818399998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.83336606515099998</v>
+      </c>
+      <c r="C7">
+        <v>0.239712684013</v>
+      </c>
+      <c r="D7">
+        <v>5.7079272718599996E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>2001</v>
       </c>
       <c r="B8">
-        <v>40.411092428300002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>1.25952057986</v>
+      </c>
+      <c r="C8">
+        <v>0.31072968772800003</v>
+      </c>
+      <c r="D8">
+        <v>3.4645351555E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>2002</v>
       </c>
       <c r="B9">
-        <v>47.7312646755</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>1.1348300006700001</v>
+      </c>
+      <c r="C9">
+        <v>0.21091063774499999</v>
+      </c>
+      <c r="D9">
+        <v>1.4663345033099999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>2003</v>
       </c>
       <c r="B10">
-        <v>52.489817895800002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>1.0572430294599999</v>
+      </c>
+      <c r="C10">
+        <v>0.14543389344400001</v>
+      </c>
+      <c r="D10">
+        <v>8.3521355903199996E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>2004</v>
       </c>
       <c r="B11">
-        <v>63.210344250600002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.72800747256999998</v>
+      </c>
+      <c r="C11">
+        <v>7.8684891477400001E-2</v>
+      </c>
+      <c r="D11">
+        <v>4.0528847191300001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>2005</v>
       </c>
       <c r="B12">
-        <v>71.750056584199996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.52799775204699995</v>
+      </c>
+      <c r="C12">
+        <v>4.52513303529E-2</v>
+      </c>
+      <c r="D12">
+        <v>2.6404003206100001E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>2006</v>
       </c>
       <c r="B13">
-        <v>68.838063507800001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.33561290165899998</v>
+      </c>
+      <c r="C13">
+        <v>3.7904649846399997E-2</v>
+      </c>
+      <c r="D13">
+        <v>1.90337580116E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>2007</v>
       </c>
       <c r="B14">
-        <v>71.051907334700005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.237612522104</v>
+      </c>
+      <c r="C14">
+        <v>2.4267216576600002E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.4516673963E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>2008</v>
       </c>
       <c r="B15">
-        <v>72.655439178999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.16473673535800001</v>
+      </c>
+      <c r="C15">
+        <v>1.70284113858E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.6244395462099998E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>2009</v>
       </c>
       <c r="B16">
-        <v>76.191064734999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.12496273029</v>
+      </c>
+      <c r="C16">
+        <v>1.7746969469999999E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6.3329528472599994E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>2010</v>
       </c>
       <c r="B17">
-        <v>82.357300797400001</v>
+        <v>0.11924058236100001</v>
+      </c>
+      <c r="C17">
+        <v>1.25828795035E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.4121937005600001E-5</v>
       </c>
     </row>
   </sheetData>
@@ -6688,316 +5253,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1995</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.205761316872</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1996</v>
-      </c>
-      <c r="B3">
-        <v>1.6724070362800001</v>
-      </c>
-      <c r="C3">
-        <v>0.13827865379000001</v>
-      </c>
-      <c r="D3">
-        <v>8.6529301374200003</v>
-      </c>
-      <c r="E3">
-        <v>9.1760949980700002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>1997</v>
-      </c>
-      <c r="B4">
-        <v>2.4903495308200001</v>
-      </c>
-      <c r="C4">
-        <v>0.30528747796099998</v>
-      </c>
-      <c r="D4">
-        <v>10.331875847199999</v>
-      </c>
-      <c r="E4">
-        <v>3.1665686435300003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>1998</v>
-      </c>
-      <c r="B5">
-        <v>1.65474993641</v>
-      </c>
-      <c r="C5">
-        <v>0.45411968400500002</v>
-      </c>
-      <c r="D5">
-        <v>8.9237451496800002</v>
-      </c>
-      <c r="E5">
-        <v>3.3530930156199998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>1999</v>
-      </c>
-      <c r="B6">
-        <v>1.11229252269</v>
-      </c>
-      <c r="C6">
-        <v>0.39499913183599999</v>
-      </c>
-      <c r="D6">
-        <v>35.211763131300003</v>
-      </c>
-      <c r="E6">
-        <v>1.7012677293199999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>2000</v>
-      </c>
-      <c r="B7">
-        <v>0.83336606515099998</v>
-      </c>
-      <c r="C7">
-        <v>0.239712684013</v>
-      </c>
-      <c r="D7">
-        <v>55.624037818399998</v>
-      </c>
-      <c r="E7">
-        <v>5.7079272718599996E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>2001</v>
-      </c>
-      <c r="B8">
-        <v>1.25952057986</v>
-      </c>
-      <c r="C8">
-        <v>0.31072968772800003</v>
-      </c>
-      <c r="D8">
-        <v>40.411092428300002</v>
-      </c>
-      <c r="E8">
-        <v>3.4645351555E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>2002</v>
-      </c>
-      <c r="B9">
-        <v>1.1348300006700001</v>
-      </c>
-      <c r="C9">
-        <v>0.21091063774499999</v>
-      </c>
-      <c r="D9">
-        <v>47.7312646755</v>
-      </c>
-      <c r="E9">
-        <v>1.4663345033099999E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>2003</v>
-      </c>
-      <c r="B10">
-        <v>1.0572430294599999</v>
-      </c>
-      <c r="C10">
-        <v>0.14543389344400001</v>
-      </c>
-      <c r="D10">
-        <v>52.489817895800002</v>
-      </c>
-      <c r="E10">
-        <v>8.3521355903199996E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>2004</v>
-      </c>
-      <c r="B11">
-        <v>0.72800747256999998</v>
-      </c>
-      <c r="C11">
-        <v>7.8684891477400001E-2</v>
-      </c>
-      <c r="D11">
-        <v>63.210344250600002</v>
-      </c>
-      <c r="E11">
-        <v>4.0528847191300001E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>2005</v>
-      </c>
-      <c r="B12">
-        <v>0.52799775204699995</v>
-      </c>
-      <c r="C12">
-        <v>4.52513303529E-2</v>
-      </c>
-      <c r="D12">
-        <v>71.750056584199996</v>
-      </c>
-      <c r="E12">
-        <v>2.6404003206100001E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>2006</v>
-      </c>
-      <c r="B13">
-        <v>0.33561290165899998</v>
-      </c>
-      <c r="C13">
-        <v>3.7904649846399997E-2</v>
-      </c>
-      <c r="D13">
-        <v>68.838063507800001</v>
-      </c>
-      <c r="E13">
-        <v>1.90337580116E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>2007</v>
-      </c>
-      <c r="B14">
-        <v>0.237612522104</v>
-      </c>
-      <c r="C14">
-        <v>2.4267216576600002E-2</v>
-      </c>
-      <c r="D14">
-        <v>71.051907334700005</v>
-      </c>
-      <c r="E14">
-        <v>1.4516673963E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>2008</v>
-      </c>
-      <c r="B15">
-        <v>0.16473673535800001</v>
-      </c>
-      <c r="C15">
-        <v>1.70284113858E-2</v>
-      </c>
-      <c r="D15">
-        <v>72.655439178999998</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3.6244395462099998E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>2009</v>
-      </c>
-      <c r="B16">
-        <v>0.12496273029</v>
-      </c>
-      <c r="C16">
-        <v>1.7746969469999999E-2</v>
-      </c>
-      <c r="D16">
-        <v>76.191064734999998</v>
-      </c>
-      <c r="E16" s="1">
-        <v>6.3329528472599994E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>2010</v>
-      </c>
-      <c r="B17">
-        <v>0.11924058236100001</v>
-      </c>
-      <c r="C17">
-        <v>1.25828795035E-2</v>
-      </c>
-      <c r="D17">
-        <v>82.357300797400001</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2.4121937005600001E-5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7017,10 +5272,10 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7276,6 +5531,317 @@
       </c>
       <c r="E16">
         <v>5.5387899971500003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1995</v>
+      </c>
+      <c r="B2">
+        <v>29.012345678999999</v>
+      </c>
+      <c r="C2">
+        <v>16.460905349800001</v>
+      </c>
+      <c r="D2">
+        <v>4.3209876543199996</v>
+      </c>
+      <c r="E2">
+        <v>1.44032921811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1996</v>
+      </c>
+      <c r="B3">
+        <v>51.608206232699999</v>
+      </c>
+      <c r="C3">
+        <v>32.128439840799999</v>
+      </c>
+      <c r="D3">
+        <v>12.904839434299999</v>
+      </c>
+      <c r="E3">
+        <v>10.058338298400001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1997</v>
+      </c>
+      <c r="B4">
+        <v>54.564322303499999</v>
+      </c>
+      <c r="C4">
+        <v>36.062245445199999</v>
+      </c>
+      <c r="D4">
+        <v>13.220499738599999</v>
+      </c>
+      <c r="E4">
+        <v>8.8362179368699998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1998</v>
+      </c>
+      <c r="B5">
+        <v>51.859675844199998</v>
+      </c>
+      <c r="C5">
+        <v>30.026053210000001</v>
+      </c>
+      <c r="D5">
+        <v>15.684730636299999</v>
+      </c>
+      <c r="E5">
+        <v>10.8912744188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1999</v>
+      </c>
+      <c r="B6">
+        <v>51.9423507769</v>
+      </c>
+      <c r="C6">
+        <v>38.0150859763</v>
+      </c>
+      <c r="D6">
+        <v>17.529701408699999</v>
+      </c>
+      <c r="E6">
+        <v>19.494442131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>68.075501984300004</v>
+      </c>
+      <c r="C7">
+        <v>36.883010907299997</v>
+      </c>
+      <c r="D7">
+        <v>13.0764474683</v>
+      </c>
+      <c r="E7">
+        <v>7.1140311590899996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8">
+        <v>71.772677468799998</v>
+      </c>
+      <c r="C8">
+        <v>22.115651547900001</v>
+      </c>
+      <c r="D8">
+        <v>11.962645009399999</v>
+      </c>
+      <c r="E8">
+        <v>4.5935303046999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9">
+        <v>74.191728124099996</v>
+      </c>
+      <c r="C9">
+        <v>21.429000997999999</v>
+      </c>
+      <c r="D9">
+        <v>11.014444509600001</v>
+      </c>
+      <c r="E9">
+        <v>3.4571194055899999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10">
+        <v>73.107522885700007</v>
+      </c>
+      <c r="C10">
+        <v>18.378127227299998</v>
+      </c>
+      <c r="D10">
+        <v>16.581475381200001</v>
+      </c>
+      <c r="E10">
+        <v>3.8303162518599998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11">
+        <v>67.973275295099995</v>
+      </c>
+      <c r="C11">
+        <v>14.736515647699999</v>
+      </c>
+      <c r="D11">
+        <v>29.018987383399999</v>
+      </c>
+      <c r="E11">
+        <v>4.0703002530500001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12">
+        <v>72.436364508300002</v>
+      </c>
+      <c r="C12">
+        <v>15.243288142500001</v>
+      </c>
+      <c r="D12">
+        <v>29.138256395700001</v>
+      </c>
+      <c r="E12">
+        <v>6.5793612777600003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13">
+        <v>62.296468297300002</v>
+      </c>
+      <c r="C13">
+        <v>15.7330780603</v>
+      </c>
+      <c r="D13">
+        <v>33.308888144900003</v>
+      </c>
+      <c r="E13">
+        <v>7.0082558630999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14">
+        <v>54.175034637400003</v>
+      </c>
+      <c r="C14">
+        <v>11.346334621900001</v>
+      </c>
+      <c r="D14">
+        <v>42.0016798017</v>
+      </c>
+      <c r="E14">
+        <v>11.679704211600001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15">
+        <v>50.494822388800003</v>
+      </c>
+      <c r="C15">
+        <v>9.5249020097999999</v>
+      </c>
+      <c r="D15">
+        <v>47.335015139500001</v>
+      </c>
+      <c r="E15">
+        <v>14.0266247357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16">
+        <v>44.716922379400003</v>
+      </c>
+      <c r="C16">
+        <v>9.64523080871</v>
+      </c>
+      <c r="D16">
+        <v>51.870884888200003</v>
+      </c>
+      <c r="E16">
+        <v>12.9918231966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17">
+        <v>41.086282019599999</v>
+      </c>
+      <c r="C17">
+        <v>9.0344914021899996</v>
+      </c>
+      <c r="D17">
+        <v>57.4506070081</v>
+      </c>
+      <c r="E17">
+        <v>17.0248837663</v>
       </c>
     </row>
   </sheetData>
@@ -7292,418 +5858,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1938</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1976</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>1980</v>
-      </c>
-      <c r="B4">
-        <v>24.6376811594</v>
-      </c>
-      <c r="C4">
-        <v>8.6956521739100001</v>
-      </c>
-      <c r="D4">
-        <v>71.014492753599995</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>1994</v>
-      </c>
-      <c r="B5">
-        <v>99.137931034499999</v>
-      </c>
-      <c r="C5">
-        <v>96.551724137899996</v>
-      </c>
-      <c r="D5">
-        <v>1.72413793103</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>1995</v>
-      </c>
-      <c r="B6">
-        <v>29.012345678999999</v>
-      </c>
-      <c r="C6">
-        <v>16.460905349800001</v>
-      </c>
-      <c r="D6">
-        <v>4.3209876543199996</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>1996</v>
-      </c>
-      <c r="B7">
-        <v>51.608206232699999</v>
-      </c>
-      <c r="C7">
-        <v>32.128439840799999</v>
-      </c>
-      <c r="D7">
-        <v>12.904839434299999</v>
-      </c>
-      <c r="E7">
-        <v>4.7792161448299997E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>1997</v>
-      </c>
-      <c r="B8">
-        <v>54.564322303499999</v>
-      </c>
-      <c r="C8">
-        <v>36.062245445199999</v>
-      </c>
-      <c r="D8">
-        <v>13.220499738599999</v>
-      </c>
-      <c r="E8">
-        <v>2.37762833303E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>1998</v>
-      </c>
-      <c r="B9">
-        <v>51.859675844199998</v>
-      </c>
-      <c r="C9">
-        <v>30.026053210000001</v>
-      </c>
-      <c r="D9">
-        <v>15.684730636299999</v>
-      </c>
-      <c r="E9">
-        <v>2.4348794426599998E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>1999</v>
-      </c>
-      <c r="B10">
-        <v>51.9423507769</v>
-      </c>
-      <c r="C10">
-        <v>38.0150859763</v>
-      </c>
-      <c r="D10">
-        <v>17.529701408699999</v>
-      </c>
-      <c r="E10">
-        <v>9.9043407219400002E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>2000</v>
-      </c>
-      <c r="B11">
-        <v>68.075501984300004</v>
-      </c>
-      <c r="C11">
-        <v>36.883010907299997</v>
-      </c>
-      <c r="D11">
-        <v>13.0764474683</v>
-      </c>
-      <c r="E11">
-        <v>4.7469577717300002E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>2001</v>
-      </c>
-      <c r="B12">
-        <v>71.772677468799998</v>
-      </c>
-      <c r="C12">
-        <v>22.115651547900001</v>
-      </c>
-      <c r="D12">
-        <v>11.962645009399999</v>
-      </c>
-      <c r="E12">
-        <v>6.0908763217600004E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>2002</v>
-      </c>
-      <c r="B13">
-        <v>74.191728124099996</v>
-      </c>
-      <c r="C13">
-        <v>21.429000997999999</v>
-      </c>
-      <c r="D13">
-        <v>11.014444509600001</v>
-      </c>
-      <c r="E13">
-        <v>8.5035967784800003E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>2003</v>
-      </c>
-      <c r="B14">
-        <v>73.107522885700007</v>
-      </c>
-      <c r="C14">
-        <v>18.378127227299998</v>
-      </c>
-      <c r="D14">
-        <v>16.581475381200001</v>
-      </c>
-      <c r="E14">
-        <v>7.0981956625500002E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>2004</v>
-      </c>
-      <c r="B15">
-        <v>67.973275295099995</v>
-      </c>
-      <c r="C15">
-        <v>14.736515647699999</v>
-      </c>
-      <c r="D15">
-        <v>29.018987383399999</v>
-      </c>
-      <c r="E15">
-        <v>3.6670975753600002E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>2005</v>
-      </c>
-      <c r="B16">
-        <v>72.436364508300002</v>
-      </c>
-      <c r="C16">
-        <v>15.243288142500001</v>
-      </c>
-      <c r="D16">
-        <v>29.138256395700001</v>
-      </c>
-      <c r="E16">
-        <v>2.02573222978E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>2006</v>
-      </c>
-      <c r="B17">
-        <v>62.296468297300002</v>
-      </c>
-      <c r="C17">
-        <v>15.7330780603</v>
-      </c>
-      <c r="D17">
-        <v>33.308888144900003</v>
-      </c>
-      <c r="E17">
-        <v>2.3350692818299999E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>2007</v>
-      </c>
-      <c r="B18">
-        <v>54.175034637400003</v>
-      </c>
-      <c r="C18">
-        <v>11.346334621900001</v>
-      </c>
-      <c r="D18">
-        <v>42.0016798017</v>
-      </c>
-      <c r="E18">
-        <v>2.6278358706699999E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>2008</v>
-      </c>
-      <c r="B19">
-        <v>50.494822388800003</v>
-      </c>
-      <c r="C19">
-        <v>9.5249020097999999</v>
-      </c>
-      <c r="D19">
-        <v>47.335015139500001</v>
-      </c>
-      <c r="E19">
-        <v>1.95620435782E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>2009</v>
-      </c>
-      <c r="B20">
-        <v>44.716922379400003</v>
-      </c>
-      <c r="C20">
-        <v>9.64523080871</v>
-      </c>
-      <c r="D20">
-        <v>51.870884888200003</v>
-      </c>
-      <c r="E20">
-        <v>2.79328455942E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>2010</v>
-      </c>
-      <c r="B21">
-        <v>41.086282019599999</v>
-      </c>
-      <c r="C21">
-        <v>9.0344914021899996</v>
-      </c>
-      <c r="D21">
-        <v>57.4506070081</v>
-      </c>
-      <c r="E21">
-        <v>1.35960008577E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>2014</v>
-      </c>
-      <c r="B22">
-        <v>100</v>
-      </c>
-      <c r="C22">
-        <v>50</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>2072</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7717,19 +5871,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8050,6 +6204,266 @@
       </c>
       <c r="F17">
         <v>94.774225759999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1995</v>
+      </c>
+      <c r="B2">
+        <v>0.205761316872</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.205761316872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1996</v>
+      </c>
+      <c r="B3">
+        <v>1.30695630841</v>
+      </c>
+      <c r="C3">
+        <v>4.1419873255199996E-3</v>
+      </c>
+      <c r="D3">
+        <v>1.30727492282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1997</v>
+      </c>
+      <c r="B4">
+        <v>1.7758073723300001</v>
+      </c>
+      <c r="C4">
+        <v>2.5721615602799998E-3</v>
+      </c>
+      <c r="D4">
+        <v>1.77619643879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1998</v>
+      </c>
+      <c r="B5">
+        <v>3.0645744696100001</v>
+      </c>
+      <c r="C5">
+        <v>7.0171465383799994E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.0652491952399998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1999</v>
+      </c>
+      <c r="B6">
+        <v>1.68529807552</v>
+      </c>
+      <c r="C6">
+        <v>1.15841344382</v>
+      </c>
+      <c r="D6">
+        <v>1.6857626153900001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>2.0611174865400002</v>
+      </c>
+      <c r="C7">
+        <v>8.68853626776</v>
+      </c>
+      <c r="D7">
+        <v>2.06265445884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8">
+        <v>3.3400782493199999</v>
+      </c>
+      <c r="C8">
+        <v>10.0165951234</v>
+      </c>
+      <c r="D8">
+        <v>3.3454501414600002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9">
+        <v>2.5451422367299998</v>
+      </c>
+      <c r="C9">
+        <v>6.0543436715299999</v>
+      </c>
+      <c r="D9">
+        <v>2.5532513809599999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10">
+        <v>2.01350358952</v>
+      </c>
+      <c r="C10">
+        <v>6.2392968203399999</v>
+      </c>
+      <c r="D10">
+        <v>2.0223893959699999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11">
+        <v>1.3668976909899999</v>
+      </c>
+      <c r="C11">
+        <v>6.2862963700799996</v>
+      </c>
+      <c r="D11">
+        <v>1.37221731415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12">
+        <v>1.21647892868</v>
+      </c>
+      <c r="C12">
+        <v>8.6440116185699996</v>
+      </c>
+      <c r="D12">
+        <v>1.21844640107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13">
+        <v>0.79851389650100002</v>
+      </c>
+      <c r="C13">
+        <v>7.4147345200199997</v>
+      </c>
+      <c r="D13">
+        <v>0.80104257376800003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14">
+        <v>0.75165854324500003</v>
+      </c>
+      <c r="C14">
+        <v>9.9266468226200004</v>
+      </c>
+      <c r="D14">
+        <v>0.75243311906099997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15">
+        <v>0.61351335047400002</v>
+      </c>
+      <c r="C15">
+        <v>11.2359507662</v>
+      </c>
+      <c r="D15">
+        <v>0.61387629092700002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16">
+        <v>0.316359266832</v>
+      </c>
+      <c r="C16">
+        <v>13.4817506068</v>
+      </c>
+      <c r="D16">
+        <v>0.316790133802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17">
+        <v>0.19203547146899999</v>
+      </c>
+      <c r="C17">
+        <v>16.1624492286</v>
+      </c>
+      <c r="D17">
+        <v>0.192365137942</v>
       </c>
     </row>
   </sheetData>
@@ -8068,8 +6482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8079,13 +6493,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8099,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.205761316872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8107,13 +6521,13 @@
         <v>1996</v>
       </c>
       <c r="B3">
-        <v>1.30695630841</v>
+        <v>8.6529301374200003</v>
       </c>
       <c r="C3">
-        <v>4.1419873255199996E-3</v>
+        <v>1.06130459856</v>
       </c>
       <c r="D3">
-        <v>1.30727492282</v>
+        <v>4.9722964770800004</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8121,13 +6535,13 @@
         <v>1997</v>
       </c>
       <c r="B4">
-        <v>1.7758073723300001</v>
+        <v>10.331875847199999</v>
       </c>
       <c r="C4">
-        <v>2.5721615602799998E-3</v>
+        <v>2.34352017385</v>
       </c>
       <c r="D4">
-        <v>1.77619643879</v>
+        <v>6.4729202182499996</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8135,13 +6549,13 @@
         <v>1998</v>
       </c>
       <c r="B5">
-        <v>3.0645744696100001</v>
+        <v>8.9237451496800002</v>
       </c>
       <c r="C5">
-        <v>7.0171465383799994E-2</v>
+        <v>5.1921310563600001</v>
       </c>
       <c r="D5">
-        <v>3.0652491952399998</v>
+        <v>6.8528068439499998</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8149,13 +6563,13 @@
         <v>1999</v>
       </c>
       <c r="B6">
-        <v>1.68529807552</v>
+        <v>35.211763131300003</v>
       </c>
       <c r="C6">
-        <v>1.15841344382</v>
+        <v>8.1303330601900008</v>
       </c>
       <c r="D6">
-        <v>1.6857626153900001</v>
+        <v>10.6046827898</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8163,13 +6577,13 @@
         <v>2000</v>
       </c>
       <c r="B7">
-        <v>2.0611174865400002</v>
+        <v>55.624037818399998</v>
       </c>
       <c r="C7">
-        <v>8.68853626776</v>
+        <v>18.534398207199999</v>
       </c>
       <c r="D7">
-        <v>2.06265445884</v>
+        <v>29.290405359200001</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8177,13 +6591,13 @@
         <v>2001</v>
       </c>
       <c r="B8">
-        <v>3.3400782493199999</v>
+        <v>40.411092428300002</v>
       </c>
       <c r="C8">
-        <v>10.0165951234</v>
+        <v>47.195285564899997</v>
       </c>
       <c r="D8">
-        <v>3.3454501414600002</v>
+        <v>14.5863877743</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8191,13 +6605,13 @@
         <v>2002</v>
       </c>
       <c r="B9">
-        <v>2.5451422367299998</v>
+        <v>47.7312646755</v>
       </c>
       <c r="C9">
-        <v>6.0543436715299999</v>
+        <v>59.3498475755</v>
       </c>
       <c r="D9">
-        <v>2.5532513809599999</v>
+        <v>16.202164481200001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8205,13 +6619,13 @@
         <v>2003</v>
       </c>
       <c r="B10">
-        <v>2.01350358952</v>
+        <v>52.489817895800002</v>
       </c>
       <c r="C10">
-        <v>6.2392968203399999</v>
+        <v>66.981768833000004</v>
       </c>
       <c r="D10">
-        <v>2.0223893959699999</v>
+        <v>10.8755463875</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8219,13 +6633,13 @@
         <v>2004</v>
       </c>
       <c r="B11">
-        <v>1.3668976909899999</v>
+        <v>63.210344250600002</v>
       </c>
       <c r="C11">
-        <v>6.2862963700799996</v>
+        <v>72.523001710599999</v>
       </c>
       <c r="D11">
-        <v>1.37221731415</v>
+        <v>9.7276652242600008</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8233,13 +6647,13 @@
         <v>2005</v>
       </c>
       <c r="B12">
-        <v>1.21647892868</v>
+        <v>71.750056584199996</v>
       </c>
       <c r="C12">
-        <v>8.6440116185699996</v>
+        <v>76.427000879100007</v>
       </c>
       <c r="D12">
-        <v>1.21844640107</v>
+        <v>10.084449943799999</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8247,13 +6661,13 @@
         <v>2006</v>
       </c>
       <c r="B13">
-        <v>0.79851389650100002</v>
+        <v>68.838063507800001</v>
       </c>
       <c r="C13">
-        <v>7.4147345200199997</v>
+        <v>80.014668552000003</v>
       </c>
       <c r="D13">
-        <v>0.80104257376800003</v>
+        <v>6.7541074457299999</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8261,13 +6675,13 @@
         <v>2007</v>
       </c>
       <c r="B14">
-        <v>0.75165854324500003</v>
+        <v>71.051907334700005</v>
       </c>
       <c r="C14">
-        <v>9.9266468226200004</v>
+        <v>84.443907280399998</v>
       </c>
       <c r="D14">
-        <v>0.75243311906099997</v>
+        <v>8.6111876827400007</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8275,13 +6689,13 @@
         <v>2008</v>
       </c>
       <c r="B15">
-        <v>0.61351335047400002</v>
+        <v>72.655439178999998</v>
       </c>
       <c r="C15">
-        <v>11.2359507662</v>
+        <v>86.177649173600003</v>
       </c>
       <c r="D15">
-        <v>0.61387629092700002</v>
+        <v>8.0715538841200001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8289,13 +6703,13 @@
         <v>2009</v>
       </c>
       <c r="B16">
-        <v>0.316359266832</v>
+        <v>76.191064734999998</v>
       </c>
       <c r="C16">
-        <v>13.4817506068</v>
+        <v>91.240200815700007</v>
       </c>
       <c r="D16">
-        <v>0.316790133802</v>
+        <v>5.4376327693700004</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8303,13 +6717,13 @@
         <v>2010</v>
       </c>
       <c r="B17">
-        <v>0.19203547146899999</v>
+        <v>82.357300797400001</v>
       </c>
       <c r="C17">
-        <v>16.1624492286</v>
+        <v>95.306949967199998</v>
       </c>
       <c r="D17">
-        <v>0.192365137942</v>
+        <v>5.5387899971500003</v>
       </c>
     </row>
   </sheetData>
@@ -8329,7 +6743,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8339,13 +6753,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
         <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8367,13 +6781,13 @@
         <v>1996</v>
       </c>
       <c r="B3">
-        <v>8.6529301374200003</v>
+        <v>1.0625790561999999</v>
       </c>
       <c r="C3">
-        <v>1.06130459856</v>
-      </c>
-      <c r="D3">
-        <v>4.9722964770800004</v>
+        <v>0.30077200271499999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.9722964770000004</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8381,13 +6795,13 @@
         <v>1997</v>
       </c>
       <c r="B4">
-        <v>10.331875847199999</v>
+        <v>1.1081261068099999</v>
       </c>
       <c r="C4">
-        <v>2.34352017385</v>
-      </c>
-      <c r="D4">
-        <v>6.4729202182499996</v>
+        <v>0.20248747476199999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.4729202179999996</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8395,13 +6809,13 @@
         <v>1998</v>
       </c>
       <c r="B5">
-        <v>8.9237451496800002</v>
+        <v>0.92507817283100002</v>
       </c>
       <c r="C5">
-        <v>5.1921310563600001</v>
-      </c>
-      <c r="D5">
-        <v>6.8528068439499998</v>
+        <v>0.45247687377899998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.8528068439999998</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8409,13 +6823,13 @@
         <v>1999</v>
       </c>
       <c r="B6">
-        <v>35.211763131300003</v>
+        <v>0.474435450388</v>
       </c>
       <c r="C6">
-        <v>8.1303330601900008</v>
-      </c>
-      <c r="D6">
-        <v>10.6046827898</v>
+        <v>0.35106067162499999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10.60468279</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8423,13 +6837,13 @@
         <v>2000</v>
       </c>
       <c r="B7">
-        <v>55.624037818399998</v>
+        <v>1.49253035803</v>
       </c>
       <c r="C7">
-        <v>18.534398207199999</v>
-      </c>
-      <c r="D7">
-        <v>29.290405359200001</v>
+        <v>0.25520108098599997</v>
+      </c>
+      <c r="D7" s="2">
+        <v>29.290405360000001</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8437,13 +6851,13 @@
         <v>2001</v>
       </c>
       <c r="B8">
-        <v>40.411092428300002</v>
+        <v>0.68207756475799997</v>
       </c>
       <c r="C8">
-        <v>47.195285564899997</v>
-      </c>
-      <c r="D8">
-        <v>14.5863877743</v>
+        <v>0.60978798982000004</v>
+      </c>
+      <c r="D8" s="2">
+        <v>14.58638777</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8451,13 +6865,13 @@
         <v>2002</v>
       </c>
       <c r="B9">
-        <v>47.7312646755</v>
+        <v>0.18837682086999999</v>
       </c>
       <c r="C9">
-        <v>59.3498475755</v>
-      </c>
-      <c r="D9">
-        <v>16.202164481200001</v>
+        <v>0.56519477552700004</v>
+      </c>
+      <c r="D9" s="2">
+        <v>16.20216448</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8465,13 +6879,13 @@
         <v>2003</v>
       </c>
       <c r="B10">
-        <v>52.489817895800002</v>
+        <v>0.140524121512</v>
       </c>
       <c r="C10">
-        <v>66.981768833000004</v>
-      </c>
-      <c r="D10">
-        <v>10.8755463875</v>
+        <v>0.64568203173500005</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10.87554639</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8479,13 +6893,13 @@
         <v>2004</v>
       </c>
       <c r="B11">
-        <v>63.210344250600002</v>
+        <v>0.11706520103699999</v>
       </c>
       <c r="C11">
-        <v>72.523001710599999</v>
-      </c>
-      <c r="D11">
-        <v>9.7276652242600008</v>
+        <v>0.73365310706800002</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9.7276652240000008</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8493,13 +6907,13 @@
         <v>2005</v>
       </c>
       <c r="B12">
-        <v>71.750056584199996</v>
+        <v>0.37322379228199998</v>
       </c>
       <c r="C12">
-        <v>76.427000879100007</v>
-      </c>
-      <c r="D12">
-        <v>10.084449943799999</v>
+        <v>0.75507004164299996</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10.084449940000001</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8507,13 +6921,13 @@
         <v>2006</v>
       </c>
       <c r="B13">
-        <v>68.838063507800001</v>
+        <v>7.5187922712899993E-2</v>
       </c>
       <c r="C13">
-        <v>80.014668552000003</v>
-      </c>
-      <c r="D13">
-        <v>6.7541074457299999</v>
+        <v>1.1247479302500001</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6.7541074459999999</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8521,13 +6935,13 @@
         <v>2007</v>
       </c>
       <c r="B14">
-        <v>71.051907334700005</v>
+        <v>7.9820514571599999E-2</v>
       </c>
       <c r="C14">
-        <v>84.443907280399998</v>
-      </c>
-      <c r="D14">
-        <v>8.6111876827400007</v>
+        <v>0.81192552183300004</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8.6111876830000007</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8535,13 +6949,13 @@
         <v>2008</v>
       </c>
       <c r="B15">
-        <v>72.655439178999998</v>
+        <v>0.100814034227</v>
       </c>
       <c r="C15">
-        <v>86.177649173600003</v>
-      </c>
-      <c r="D15">
-        <v>8.0715538841200001</v>
+        <v>1.0688606276399999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8.0715538840000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8549,13 +6963,13 @@
         <v>2009</v>
       </c>
       <c r="B16">
-        <v>76.191064734999998</v>
+        <v>5.1230195881099998E-2</v>
       </c>
       <c r="C16">
-        <v>91.240200815700007</v>
-      </c>
-      <c r="D16">
-        <v>5.4376327693700004</v>
+        <v>0.962371347052</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5.4376327690000004</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8563,13 +6977,13 @@
         <v>2010</v>
       </c>
       <c r="B17">
-        <v>82.357300797400001</v>
+        <v>4.3515243390300003E-2</v>
       </c>
       <c r="C17">
-        <v>95.306949967199998</v>
-      </c>
-      <c r="D17">
-        <v>5.5387899971500003</v>
+        <v>0.85213081569100002</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5.5387899970000003</v>
       </c>
     </row>
   </sheetData>
@@ -8586,255 +7000,203 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D17"/>
+      <selection activeCell="C1" sqref="C1:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1995</v>
       </c>
       <c r="B2">
-        <v>0.205761316872</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>13.7860082305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1996</v>
       </c>
-      <c r="B3">
-        <v>1.0625790561999999</v>
+      <c r="B3" s="2">
+        <v>4.9722964770000004</v>
       </c>
       <c r="C3">
-        <v>0.30077200271499999</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4.9722964770000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>32.045281479899998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1997</v>
       </c>
-      <c r="B4">
-        <v>1.1081261068099999</v>
+      <c r="B4" s="2">
+        <v>6.4729202179999996</v>
       </c>
       <c r="C4">
-        <v>0.20248747476199999</v>
-      </c>
-      <c r="D4" s="2">
-        <v>6.4729202179999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>41.417442584100002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1998</v>
       </c>
-      <c r="B5">
-        <v>0.92507817283100002</v>
+      <c r="B5" s="2">
+        <v>6.8528068439999998</v>
       </c>
       <c r="C5">
-        <v>0.45247687377899998</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6.8528068439999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>56.931060348899997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1999</v>
       </c>
-      <c r="B6">
-        <v>0.474435450388</v>
+      <c r="B6" s="2">
+        <v>10.60468279</v>
       </c>
       <c r="C6">
-        <v>0.35106067162499999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>10.60468279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>56.467950824299997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2000</v>
       </c>
-      <c r="B7">
-        <v>1.49253035803</v>
+      <c r="B7" s="2">
+        <v>29.290405360000001</v>
       </c>
       <c r="C7">
-        <v>0.25520108098599997</v>
-      </c>
-      <c r="D7" s="2">
-        <v>29.290405360000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>71.459469244399997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>2001</v>
       </c>
-      <c r="B8">
-        <v>0.68207756475799997</v>
+      <c r="B8" s="2">
+        <v>14.58638777</v>
       </c>
       <c r="C8">
-        <v>0.60978798982000004</v>
-      </c>
-      <c r="D8" s="2">
-        <v>14.58638777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>79.632165459600003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>2002</v>
       </c>
-      <c r="B9">
-        <v>0.18837682086999999</v>
+      <c r="B9" s="2">
+        <v>16.20216448</v>
       </c>
       <c r="C9">
-        <v>0.56519477552700004</v>
-      </c>
-      <c r="D9" s="2">
-        <v>16.20216448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>75.9098877136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>2003</v>
       </c>
-      <c r="B10">
-        <v>0.140524121512</v>
+      <c r="B10" s="2">
+        <v>10.87554639</v>
       </c>
       <c r="C10">
-        <v>0.64568203173500005</v>
-      </c>
-      <c r="D10" s="2">
-        <v>10.87554639</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>70.603915382599993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>2004</v>
       </c>
-      <c r="B11">
-        <v>0.11706520103699999</v>
+      <c r="B11" s="2">
+        <v>9.7276652240000008</v>
       </c>
       <c r="C11">
-        <v>0.73365310706800002</v>
-      </c>
-      <c r="D11" s="2">
-        <v>9.7276652240000008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>65.386721723700006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>2005</v>
       </c>
-      <c r="B12">
-        <v>0.37322379228199998</v>
+      <c r="B12" s="2">
+        <v>10.084449940000001</v>
       </c>
       <c r="C12">
-        <v>0.75507004164299996</v>
-      </c>
-      <c r="D12" s="2">
-        <v>10.084449940000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>59.819686741399998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>2006</v>
       </c>
-      <c r="B13">
-        <v>7.5187922712899993E-2</v>
+      <c r="B13" s="2">
+        <v>6.7541074459999999</v>
       </c>
       <c r="C13">
-        <v>1.1247479302500001</v>
-      </c>
-      <c r="D13" s="2">
-        <v>6.7541074459999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>46.212317476099997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>2007</v>
       </c>
-      <c r="B14">
-        <v>7.9820514571599999E-2</v>
+      <c r="B14" s="2">
+        <v>8.6111876830000007</v>
       </c>
       <c r="C14">
-        <v>0.81192552183300004</v>
-      </c>
-      <c r="D14" s="2">
-        <v>8.6111876830000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>40.738612609699999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>2008</v>
       </c>
-      <c r="B15">
-        <v>0.100814034227</v>
+      <c r="B15" s="2">
+        <v>8.0715538840000001</v>
       </c>
       <c r="C15">
-        <v>1.0688606276399999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>8.0715538840000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>34.918275590999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>2009</v>
       </c>
-      <c r="B16">
-        <v>5.1230195881099998E-2</v>
+      <c r="B16" s="2">
+        <v>5.4376327690000004</v>
       </c>
       <c r="C16">
-        <v>0.962371347052</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5.4376327690000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>26.284297675200001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>2010</v>
       </c>
-      <c r="B17">
-        <v>4.3515243390300003E-2</v>
+      <c r="B17" s="2">
+        <v>5.5387899970000003</v>
       </c>
       <c r="C17">
-        <v>0.85213081569100002</v>
-      </c>
-      <c r="D17" s="2">
-        <v>5.5387899970000003</v>
+        <v>19.882185681999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -8846,203 +7208,153 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C17"/>
+      <selection activeCell="B1" sqref="B1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1995</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>13.7860082305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.205761316872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1996</v>
       </c>
-      <c r="B3" s="2">
-        <v>4.9722964770000004</v>
-      </c>
-      <c r="C3">
-        <v>32.045281479899998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3">
+        <v>8.6529301374200003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1997</v>
       </c>
-      <c r="B4" s="2">
-        <v>6.4729202179999996</v>
-      </c>
-      <c r="C4">
-        <v>41.417442584100002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4">
+        <v>10.331875847199999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>1998</v>
       </c>
-      <c r="B5" s="2">
-        <v>6.8528068439999998</v>
-      </c>
-      <c r="C5">
-        <v>56.931060348899997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5">
+        <v>8.9237451496800002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>1999</v>
       </c>
-      <c r="B6" s="2">
-        <v>10.60468279</v>
-      </c>
-      <c r="C6">
-        <v>56.467950824299997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6">
+        <v>35.211763131300003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>2000</v>
       </c>
-      <c r="B7" s="2">
-        <v>29.290405360000001</v>
-      </c>
-      <c r="C7">
-        <v>71.459469244399997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7">
+        <v>55.624037818399998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>2001</v>
       </c>
-      <c r="B8" s="2">
-        <v>14.58638777</v>
-      </c>
-      <c r="C8">
-        <v>79.632165459600003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8">
+        <v>40.411092428300002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>2002</v>
       </c>
-      <c r="B9" s="2">
-        <v>16.20216448</v>
-      </c>
-      <c r="C9">
-        <v>75.9098877136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="B9">
+        <v>47.7312646755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>2003</v>
       </c>
-      <c r="B10" s="2">
-        <v>10.87554639</v>
-      </c>
-      <c r="C10">
-        <v>70.603915382599993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10">
+        <v>52.489817895800002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>2004</v>
       </c>
-      <c r="B11" s="2">
-        <v>9.7276652240000008</v>
-      </c>
-      <c r="C11">
-        <v>65.386721723700006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11">
+        <v>63.210344250600002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>2005</v>
       </c>
-      <c r="B12" s="2">
-        <v>10.084449940000001</v>
-      </c>
-      <c r="C12">
-        <v>59.819686741399998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12">
+        <v>71.750056584199996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>2006</v>
       </c>
-      <c r="B13" s="2">
-        <v>6.7541074459999999</v>
-      </c>
-      <c r="C13">
-        <v>46.212317476099997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="B13">
+        <v>68.838063507800001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>2007</v>
       </c>
-      <c r="B14" s="2">
-        <v>8.6111876830000007</v>
-      </c>
-      <c r="C14">
-        <v>40.738612609699999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="B14">
+        <v>71.051907334700005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>2008</v>
       </c>
-      <c r="B15" s="2">
-        <v>8.0715538840000001</v>
-      </c>
-      <c r="C15">
-        <v>34.918275590999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15">
+        <v>72.655439178999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>2009</v>
       </c>
-      <c r="B16" s="2">
-        <v>5.4376327690000004</v>
-      </c>
-      <c r="C16">
-        <v>26.284297675200001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16">
+        <v>76.191064734999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>2010</v>
       </c>
-      <c r="B17" s="2">
-        <v>5.5387899970000003</v>
-      </c>
-      <c r="C17">
-        <v>19.882185681999999</v>
+      <c r="B17">
+        <v>82.357300797400001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/experiments/web-trends/elements-over-time.xlsx
+++ b/experiments/web-trends/elements-over-time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15560" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Obsoletes" sheetId="3" r:id="rId1"/>
@@ -200,8 +200,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -288,7 +292,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -329,6 +333,8 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -369,6 +375,8 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4995,7 +5003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
@@ -6482,8 +6490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
